--- a/SCRUM/SCRUM_TEAM_E.xlsx
+++ b/SCRUM/SCRUM_TEAM_E.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Team E</t>
+  </si>
+  <si>
+    <t>Due: 08.11.2021</t>
   </si>
 </sst>
 </file>
@@ -973,7 +976,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,16 +1010,32 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>

--- a/SCRUM/SCRUM_TEAM_E.xlsx
+++ b/SCRUM/SCRUM_TEAM_E.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -59,27 +59,15 @@
     <t>Implementierung der TicTacToe-Darstellung</t>
   </si>
   <si>
-    <t>Umsetzung des Painters im Framework.</t>
-  </si>
-  <si>
     <t>Implementierung der TicTacToe-Regeln</t>
   </si>
   <si>
-    <t>Umsetzung der Rules im Framework.</t>
-  </si>
-  <si>
     <t>Implementierung eines menschlichen TicTacToe-Spielers</t>
   </si>
   <si>
-    <t>Umsetzung eines menschlichen Players im Framework.</t>
-  </si>
-  <si>
     <t>Implementierung eines PC gesteurten TicTacToe-Spielers</t>
   </si>
   <si>
-    <t>Umsetzung eines PC gesteuerten Players im Framework.</t>
-  </si>
-  <si>
     <t>Spezifikation eines weiteren Spiels</t>
   </si>
   <si>
@@ -99,6 +87,30 @@
   </si>
   <si>
     <t>Due: 08.11.2021</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Focus Faktor: 0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umsetzung des Painters im Framework. Standard-TicTacToe: 1/3 ca. des Bildschirms für Spielfeld. Ausblick: TicTacToe mit variabler Spielfeldgröße: 3 Größen zur Auswahl. Mit Ausblick auf Anzeige wer gewonnen hat. </t>
+  </si>
+  <si>
+    <t>Umsetzung der Rules im Framework. Standard-TicTacToe. Ausblick auf variable Spielfeldgröße: Gewinn bleibt bei 3 in der Reihe. Mit Ausblick auf "Hidden-Modus" bei dem gesetzte Felder nicht angezeigt werden.</t>
+  </si>
+  <si>
+    <t>Umsetzung eines menschlichen Players im Framework. Standard-TicTacToe mit Mauseingabe. Ausblick: Tasteneingabe.</t>
+  </si>
+  <si>
+    <t>Umsetzung eines PC gesteuerten Players im Framework. Standard-TicTacToe.</t>
+  </si>
+  <si>
+    <t>180min</t>
   </si>
 </sst>
 </file>
@@ -267,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,6 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +606,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -668,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -677,10 +692,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -689,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13"/>
     </row>
@@ -701,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -713,10 +728,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -725,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -973,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,17 +1000,21 @@
     <col min="2" max="2" width="33.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="65.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1020,10 +1039,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1034,76 +1056,108 @@
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>

--- a/SCRUM/SCRUM_TEAM_E.xlsx
+++ b/SCRUM/SCRUM_TEAM_E.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Im Entwicklungsteam kann beschlossen werden welches weitere Spiel umgesetzt werden soll, bzw. kann.</t>
   </si>
   <si>
-    <t>Erzeugung der TicTacToe-Spieler in einer Fabrik.</t>
-  </si>
-  <si>
-    <t>Umsetung einer Fabrik zur Erzeugung der menschlichen und PC gesteuerten TicTacToe-Spieler.</t>
-  </si>
-  <si>
     <t>Sprint - Backlog</t>
   </si>
   <si>
@@ -111,6 +105,27 @@
   </si>
   <si>
     <t>180min</t>
+  </si>
+  <si>
+    <t>0min</t>
+  </si>
+  <si>
+    <t>120min</t>
+  </si>
+  <si>
+    <t>Variable Spielfeldgröße in der Darstellung.</t>
+  </si>
+  <si>
+    <t>Variable Spielfeldgröße Darstellung</t>
+  </si>
+  <si>
+    <t>Variable Spielfeldgröße Regeln</t>
+  </si>
+  <si>
+    <t>Variable Spielfeldgröße in derRegeln.</t>
+  </si>
+  <si>
+    <t>Variable Spielfeldgröße in der Darstellung. Eingabe der Größe über Dialog.</t>
   </si>
 </sst>
 </file>
@@ -279,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -321,6 +336,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -640,74 +658,50 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="13"/>
     </row>
@@ -719,20 +713,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,13 +993,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1039,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1056,10 +1044,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1073,10 +1061,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1087,12 +1075,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1102,36 +1092,76 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10"/>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
